--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenminhua\PycharmProjects\Vip6UIappium\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FDFE63-1CD9-40C4-A53D-E7EDA428F6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7511F7F8-DCB2-4754-98AC-D4060E4A4AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="16640" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1390" yWindow="890" windowWidth="16640" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,23 +43,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_publish_short_news_min_len</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_publish_short_news_max_len</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微头条00000000000000000000000000000000000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_publish_short_news_normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TestPublishShortNews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_publish_headline_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_publish_headline_min_len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_publish_headline_max_len</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +388,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -411,10 +411,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -422,10 +422,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -433,13 +433,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
